--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31EEF8-8A2C-4B80-B34A-670F5DB739E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8AB210-74F2-425E-BD21-67F83B9578B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>№
 п/п</t>
@@ -230,6 +230,24 @@
   </si>
   <si>
     <t>19.6.1988</t>
+  </si>
+  <si>
+    <t>Даутов Искандер Садыкович</t>
+  </si>
+  <si>
+    <t>Говоров Леонид Александрович</t>
+  </si>
+  <si>
+    <t>Командир роты</t>
+  </si>
+  <si>
+    <t>заместитель командира роты по военно-политической работе</t>
+  </si>
+  <si>
+    <t>06.04.1967</t>
+  </si>
+  <si>
+    <t>31.03.1971</t>
   </si>
 </sst>
 </file>
@@ -652,16 +670,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="22.53125" customWidth="1"/>
     <col min="5" max="5" width="20.9296875" customWidth="1"/>
@@ -859,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -882,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -908,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -957,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -983,13 +1001,25 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.45">
@@ -997,55 +1027,25 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8AB210-74F2-425E-BD21-67F83B9578B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E530D6-43E9-4DE5-84BD-DEF6A623F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,9 +238,6 @@
     <t>Говоров Леонид Александрович</t>
   </si>
   <si>
-    <t>Командир роты</t>
-  </si>
-  <si>
     <t>заместитель командира роты по военно-политической работе</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>31.03.1971</t>
+  </si>
+  <si>
+    <t>ВРИО командира</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
         <v>53</v>
@@ -1019,7 +1019,7 @@
         <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.45">
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
         <v>53</v>
@@ -1045,7 +1045,7 @@
         <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E530D6-43E9-4DE5-84BD-DEF6A623F8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CE87AB-417A-450A-A400-2C8F497A7CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>№
 п/п</t>
@@ -208,9 +208,6 @@
     <t>Нестеренко Константин Петрович</t>
   </si>
   <si>
-    <t>Жаксы Аксай Берметович</t>
-  </si>
-  <si>
     <t>Радист</t>
   </si>
   <si>
@@ -238,16 +235,31 @@
     <t>Говоров Леонид Александрович</t>
   </si>
   <si>
-    <t>заместитель командира роты по военно-политической работе</t>
-  </si>
-  <si>
     <t>06.04.1967</t>
   </si>
   <si>
     <t>31.03.1971</t>
   </si>
   <si>
-    <t>ВРИО командира</t>
+    <t>Ажибаев Жаксыбай Жакслыкович</t>
+  </si>
+  <si>
+    <t>4.03.1987</t>
+  </si>
+  <si>
+    <t>Токаев Аксай Берметович</t>
+  </si>
+  <si>
+    <t>ВРИО командира 1 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>заместитель командира 2 стрелковой роты по военно-политической работе</t>
+  </si>
+  <si>
+    <t>лейтенант</t>
+  </si>
+  <si>
+    <t>старший лейтенант</t>
   </si>
 </sst>
 </file>
@@ -670,45 +682,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22.53125" customWidth="1"/>
-    <col min="5" max="5" width="20.9296875" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.53125" customWidth="1"/>
+    <col min="13" max="13" width="22.54296875" customWidth="1"/>
     <col min="14" max="14" width="41" customWidth="1"/>
-    <col min="15" max="15" width="16.06640625" customWidth="1"/>
-    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="20.53125" customWidth="1"/>
-    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23.53125" customWidth="1"/>
-    <col min="21" max="21" width="38.53125" customWidth="1"/>
-    <col min="22" max="22" width="37.53125" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
+    <col min="17" max="17" width="20.6328125" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1"/>
+    <col min="19" max="19" width="16.36328125" customWidth="1"/>
+    <col min="20" max="20" width="23.54296875" customWidth="1"/>
+    <col min="21" max="21" width="38.54296875" customWidth="1"/>
+    <col min="22" max="22" width="37.54296875" customWidth="1"/>
     <col min="23" max="24" width="32" customWidth="1"/>
-    <col min="25" max="25" width="20.9296875" customWidth="1"/>
-    <col min="26" max="26" width="24.46484375" customWidth="1"/>
-    <col min="27" max="27" width="31.46484375" customWidth="1"/>
-    <col min="28" max="28" width="23.53125" customWidth="1"/>
+    <col min="25" max="25" width="20.90625" customWidth="1"/>
+    <col min="26" max="26" width="24.453125" customWidth="1"/>
+    <col min="27" max="27" width="31.453125" customWidth="1"/>
+    <col min="28" max="28" width="23.54296875" customWidth="1"/>
     <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="31" width="9.06640625" customWidth="1"/>
-    <col min="32" max="32" width="18.46484375" customWidth="1"/>
-    <col min="33" max="48" width="9.06640625" customWidth="1"/>
-    <col min="49" max="51" width="12.06640625" customWidth="1"/>
-    <col min="52" max="52" width="15.06640625" customWidth="1"/>
-    <col min="53" max="53" width="20.9296875" customWidth="1"/>
+    <col min="30" max="31" width="9.08984375" customWidth="1"/>
+    <col min="32" max="32" width="18.453125" customWidth="1"/>
+    <col min="33" max="48" width="9.08984375" customWidth="1"/>
+    <col min="49" max="51" width="12.08984375" customWidth="1"/>
+    <col min="52" max="52" width="15.08984375" customWidth="1"/>
+    <col min="53" max="53" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -889,10 +902,10 @@
         <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -900,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -915,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -926,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -941,10 +954,10 @@
         <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -958,19 +971,19 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
         <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -990,13 +1003,13 @@
         <v>54</v>
       </c>
       <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
         <v>64</v>
       </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1010,19 +1023,19 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1036,15 +1049,41 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
         <v>68</v>
       </c>
-      <c r="M8" t="s">
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" t="s">
         <v>70</v>
       </c>
     </row>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CE87AB-417A-450A-A400-2C8F497A7CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A587042-3502-4B12-BF0E-FB6B626F212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="ШБС" sheetId="1" r:id="rId1"/>
+    <sheet name="Другой лист" sheetId="2" r:id="rId2"/>
+    <sheet name="Ещё один лист" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>№
 п/п</t>
@@ -260,6 +262,12 @@
   </si>
   <si>
     <t>старший лейтенант</t>
+  </si>
+  <si>
+    <t>ФРОЛОВ ЕВГЕНИЙ МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>16.07.1993</t>
   </si>
 </sst>
 </file>
@@ -682,46 +690,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" customWidth="1"/>
+    <col min="5" max="5" width="20.9296875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.54296875" customWidth="1"/>
+    <col min="13" max="13" width="22.53125" customWidth="1"/>
     <col min="14" max="14" width="41" customWidth="1"/>
-    <col min="15" max="15" width="16.08984375" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" customWidth="1"/>
-    <col min="17" max="17" width="20.6328125" customWidth="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1"/>
-    <col min="19" max="19" width="16.36328125" customWidth="1"/>
-    <col min="20" max="20" width="23.54296875" customWidth="1"/>
-    <col min="21" max="21" width="38.54296875" customWidth="1"/>
-    <col min="22" max="22" width="37.54296875" customWidth="1"/>
+    <col min="15" max="15" width="16.06640625" customWidth="1"/>
+    <col min="16" max="16" width="16.19921875" customWidth="1"/>
+    <col min="17" max="17" width="20.59765625" customWidth="1"/>
+    <col min="18" max="18" width="20.53125" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.53125" customWidth="1"/>
+    <col min="21" max="21" width="38.53125" customWidth="1"/>
+    <col min="22" max="22" width="37.53125" customWidth="1"/>
     <col min="23" max="24" width="32" customWidth="1"/>
-    <col min="25" max="25" width="20.90625" customWidth="1"/>
-    <col min="26" max="26" width="24.453125" customWidth="1"/>
-    <col min="27" max="27" width="31.453125" customWidth="1"/>
-    <col min="28" max="28" width="23.54296875" customWidth="1"/>
+    <col min="25" max="25" width="20.9296875" customWidth="1"/>
+    <col min="26" max="26" width="24.46484375" customWidth="1"/>
+    <col min="27" max="27" width="31.46484375" customWidth="1"/>
+    <col min="28" max="28" width="23.53125" customWidth="1"/>
     <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="31" width="9.08984375" customWidth="1"/>
-    <col min="32" max="32" width="18.453125" customWidth="1"/>
-    <col min="33" max="48" width="9.08984375" customWidth="1"/>
-    <col min="49" max="51" width="12.08984375" customWidth="1"/>
-    <col min="52" max="52" width="15.08984375" customWidth="1"/>
-    <col min="53" max="53" width="20.90625" customWidth="1"/>
+    <col min="30" max="31" width="9.06640625" customWidth="1"/>
+    <col min="32" max="32" width="18.46484375" customWidth="1"/>
+    <col min="33" max="48" width="9.06640625" customWidth="1"/>
+    <col min="49" max="51" width="12.06640625" customWidth="1"/>
+    <col min="52" max="52" width="15.06640625" customWidth="1"/>
+    <col min="53" max="53" width="20.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -905,7 +913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -931,7 +939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -957,7 +965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -983,7 +991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1085,10 +1093,62 @@
       </c>
       <c r="O9" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D329EB4-2DD9-47B1-A8D6-08AE02A27C8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC2861C-BB26-4A92-ADD8-F43E990D5766}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A587042-3502-4B12-BF0E-FB6B626F212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0650625-1486-4443-B168-0D3F347A6B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ШБС" sheetId="1" r:id="rId1"/>
-    <sheet name="Другой лист" sheetId="2" r:id="rId2"/>
+    <sheet name="Другой лист" sheetId="2" r:id="rId1"/>
+    <sheet name="ШДС" sheetId="1" r:id="rId2"/>
     <sheet name="Ещё один лист" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -689,11 +689,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D329EB4-2DD9-47B1-A8D6-08AE02A27C8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1127,19 +1140,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D329EB4-2DD9-47B1-A8D6-08AE02A27C8D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC2861C-BB26-4A92-ADD8-F43E990D5766}">
   <dimension ref="A1"/>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0650625-1486-4443-B168-0D3F347A6B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C906F7-11D7-4FC8-87E2-2B584FF97F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>№
 п/п</t>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>16.07.1993</t>
+  </si>
+  <si>
+    <t>АБ-346578</t>
+  </si>
+  <si>
+    <t>ВГ-113423</t>
+  </si>
+  <si>
+    <t>ЖЗ-766212</t>
   </si>
 </sst>
 </file>
@@ -703,10 +712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -720,29 +729,29 @@
     <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="22.53125" customWidth="1"/>
     <col min="14" max="14" width="41" customWidth="1"/>
-    <col min="15" max="15" width="16.06640625" customWidth="1"/>
-    <col min="16" max="16" width="16.19921875" customWidth="1"/>
-    <col min="17" max="17" width="20.59765625" customWidth="1"/>
-    <col min="18" max="18" width="20.53125" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
-    <col min="20" max="20" width="23.53125" customWidth="1"/>
-    <col min="21" max="21" width="38.53125" customWidth="1"/>
-    <col min="22" max="22" width="37.53125" customWidth="1"/>
-    <col min="23" max="24" width="32" customWidth="1"/>
-    <col min="25" max="25" width="20.9296875" customWidth="1"/>
-    <col min="26" max="26" width="24.46484375" customWidth="1"/>
-    <col min="27" max="27" width="31.46484375" customWidth="1"/>
-    <col min="28" max="28" width="23.53125" customWidth="1"/>
-    <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="31" width="9.06640625" customWidth="1"/>
-    <col min="32" max="32" width="18.46484375" customWidth="1"/>
-    <col min="33" max="48" width="9.06640625" customWidth="1"/>
-    <col min="49" max="51" width="12.06640625" customWidth="1"/>
-    <col min="52" max="52" width="15.06640625" customWidth="1"/>
-    <col min="53" max="53" width="20.9296875" customWidth="1"/>
+    <col min="15" max="16" width="16.06640625" customWidth="1"/>
+    <col min="17" max="17" width="16.19921875" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" customWidth="1"/>
+    <col min="19" max="19" width="20.53125" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.53125" customWidth="1"/>
+    <col min="22" max="22" width="38.53125" customWidth="1"/>
+    <col min="23" max="23" width="37.53125" customWidth="1"/>
+    <col min="24" max="25" width="32" customWidth="1"/>
+    <col min="26" max="26" width="20.9296875" customWidth="1"/>
+    <col min="27" max="27" width="24.46484375" customWidth="1"/>
+    <col min="28" max="28" width="31.46484375" customWidth="1"/>
+    <col min="29" max="29" width="23.53125" customWidth="1"/>
+    <col min="30" max="30" width="21" customWidth="1"/>
+    <col min="31" max="32" width="9.06640625" customWidth="1"/>
+    <col min="33" max="33" width="18.46484375" customWidth="1"/>
+    <col min="34" max="49" width="9.06640625" customWidth="1"/>
+    <col min="50" max="52" width="12.06640625" customWidth="1"/>
+    <col min="53" max="53" width="15.06640625" customWidth="1"/>
+    <col min="54" max="54" width="20.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,118 +798,121 @@
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7">
+      <c r="AT1" s="7">
         <v>200</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -925,8 +937,11 @@
       <c r="O2" t="s">
         <v>59</v>
       </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -951,8 +966,11 @@
       <c r="O3" t="s">
         <v>60</v>
       </c>
+      <c r="P3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -977,8 +995,11 @@
       <c r="O4" t="s">
         <v>61</v>
       </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1004,7 +1025,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1030,7 +1051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1056,7 +1077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1082,7 +1103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1108,7 +1129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C906F7-11D7-4FC8-87E2-2B584FF97F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA70BBB-8540-4A3A-8406-E6256045DFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Другой лист" sheetId="2" r:id="rId1"/>
@@ -703,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -715,43 +715,43 @@
   <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22.53125" customWidth="1"/>
-    <col min="5" max="5" width="20.9296875" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="22.53125" customWidth="1"/>
-    <col min="14" max="14" width="41" customWidth="1"/>
-    <col min="15" max="16" width="16.06640625" customWidth="1"/>
-    <col min="17" max="17" width="16.19921875" customWidth="1"/>
-    <col min="18" max="18" width="20.59765625" customWidth="1"/>
-    <col min="19" max="19" width="20.53125" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
-    <col min="21" max="21" width="23.53125" customWidth="1"/>
-    <col min="22" max="22" width="38.53125" customWidth="1"/>
-    <col min="23" max="23" width="37.53125" customWidth="1"/>
+    <col min="13" max="14" width="22.54296875" customWidth="1"/>
+    <col min="15" max="15" width="41" customWidth="1"/>
+    <col min="16" max="16" width="16.08984375" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" customWidth="1"/>
+    <col min="18" max="18" width="20.6328125" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" customWidth="1"/>
+    <col min="20" max="20" width="16.36328125" customWidth="1"/>
+    <col min="21" max="21" width="23.54296875" customWidth="1"/>
+    <col min="22" max="22" width="38.54296875" customWidth="1"/>
+    <col min="23" max="23" width="37.54296875" customWidth="1"/>
     <col min="24" max="25" width="32" customWidth="1"/>
-    <col min="26" max="26" width="20.9296875" customWidth="1"/>
-    <col min="27" max="27" width="24.46484375" customWidth="1"/>
-    <col min="28" max="28" width="31.46484375" customWidth="1"/>
-    <col min="29" max="29" width="23.53125" customWidth="1"/>
+    <col min="26" max="26" width="20.90625" customWidth="1"/>
+    <col min="27" max="27" width="24.453125" customWidth="1"/>
+    <col min="28" max="28" width="31.453125" customWidth="1"/>
+    <col min="29" max="29" width="23.54296875" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="32" width="9.06640625" customWidth="1"/>
-    <col min="33" max="33" width="18.46484375" customWidth="1"/>
-    <col min="34" max="49" width="9.06640625" customWidth="1"/>
-    <col min="50" max="52" width="12.06640625" customWidth="1"/>
-    <col min="53" max="53" width="15.06640625" customWidth="1"/>
-    <col min="54" max="54" width="20.9296875" customWidth="1"/>
+    <col min="31" max="32" width="9.08984375" customWidth="1"/>
+    <col min="33" max="33" width="18.453125" customWidth="1"/>
+    <col min="34" max="49" width="9.08984375" customWidth="1"/>
+    <col min="50" max="52" width="12.08984375" customWidth="1"/>
+    <col min="53" max="53" width="15.08984375" customWidth="1"/>
+    <col min="54" max="54" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,13 +792,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>15</v>
@@ -912,7 +912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -932,16 +932,16 @@
         <v>53</v>
       </c>
       <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -961,16 +961,16 @@
         <v>54</v>
       </c>
       <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -990,16 +990,16 @@
         <v>53</v>
       </c>
       <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
         <v>57</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
-      <c r="P4" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1018,14 +1018,14 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>71</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1044,14 +1044,14 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>63</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1070,14 +1070,14 @@
       <c r="M7" t="s">
         <v>74</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1096,14 +1096,14 @@
       <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>66</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1122,14 +1122,14 @@
       <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>69</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1148,10 +1148,10 @@
       <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA70BBB-8540-4A3A-8406-E6256045DFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1014BB0E-8F73-4910-A789-B6EE9D0658BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>№
 п/п</t>
@@ -277,13 +277,43 @@
   </si>
   <si>
     <t>ЖЗ-766212</t>
+  </si>
+  <si>
+    <t>3 отделение</t>
+  </si>
+  <si>
+    <t>1 стрелковая рота</t>
+  </si>
+  <si>
+    <t>3 разведывательная рота</t>
+  </si>
+  <si>
+    <t>2 стрелковый взвод</t>
+  </si>
+  <si>
+    <t>3 разведывательный взвод</t>
+  </si>
+  <si>
+    <t>2 артиллерийская рота</t>
+  </si>
+  <si>
+    <t>1 артиллерийская батарея</t>
+  </si>
+  <si>
+    <t>2 орудийный расчет</t>
+  </si>
+  <si>
+    <t>4 разведывательное отделение</t>
+  </si>
+  <si>
+    <t>Наводчик</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +356,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -714,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -916,14 +952,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -945,17 +981,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
         <v>54</v>
@@ -974,14 +1010,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
@@ -1156,6 +1192,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1014BB0E-8F73-4910-A789-B6EE9D0658BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F35AA-DD6E-4513-8BCD-4C639F6B9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>№
 п/п</t>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Наводчик</t>
+  </si>
+  <si>
+    <t>ЛК-884912</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,6 +1057,9 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
       <c r="O5" t="s">
         <v>71</v>
       </c>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F35AA-DD6E-4513-8BCD-4C639F6B9308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535500A-B22A-446D-B14A-913A7ACA6954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>№
 п/п</t>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>ЛК-884912</t>
+  </si>
+  <si>
+    <t>РЦ-365212</t>
   </si>
 </sst>
 </file>
@@ -753,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1086,6 +1089,9 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
       <c r="O6" t="s">
         <v>63</v>
       </c>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535500A-B22A-446D-B14A-913A7ACA6954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B8CA5-DEB8-42F4-A266-F4DF4A1ECCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Другой лист" sheetId="2" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -756,44 +756,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" customWidth="1"/>
+    <col min="5" max="5" width="20.9296875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="22.54296875" customWidth="1"/>
+    <col min="13" max="14" width="22.53125" customWidth="1"/>
     <col min="15" max="15" width="41" customWidth="1"/>
-    <col min="16" max="16" width="16.08984375" customWidth="1"/>
-    <col min="17" max="17" width="16.1796875" customWidth="1"/>
-    <col min="18" max="18" width="20.6328125" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" customWidth="1"/>
-    <col min="20" max="20" width="16.36328125" customWidth="1"/>
-    <col min="21" max="21" width="23.54296875" customWidth="1"/>
-    <col min="22" max="22" width="38.54296875" customWidth="1"/>
-    <col min="23" max="23" width="37.54296875" customWidth="1"/>
+    <col min="16" max="16" width="16.06640625" customWidth="1"/>
+    <col min="17" max="17" width="16.19921875" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" customWidth="1"/>
+    <col min="19" max="19" width="20.53125" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.53125" customWidth="1"/>
+    <col min="22" max="22" width="38.53125" customWidth="1"/>
+    <col min="23" max="23" width="37.53125" customWidth="1"/>
     <col min="24" max="25" width="32" customWidth="1"/>
-    <col min="26" max="26" width="20.90625" customWidth="1"/>
-    <col min="27" max="27" width="24.453125" customWidth="1"/>
-    <col min="28" max="28" width="31.453125" customWidth="1"/>
-    <col min="29" max="29" width="23.54296875" customWidth="1"/>
+    <col min="26" max="26" width="20.9296875" customWidth="1"/>
+    <col min="27" max="27" width="24.46484375" customWidth="1"/>
+    <col min="28" max="28" width="31.46484375" customWidth="1"/>
+    <col min="29" max="29" width="23.53125" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="32" width="9.08984375" customWidth="1"/>
-    <col min="33" max="33" width="18.453125" customWidth="1"/>
-    <col min="34" max="49" width="9.08984375" customWidth="1"/>
-    <col min="50" max="52" width="12.08984375" customWidth="1"/>
-    <col min="53" max="53" width="15.08984375" customWidth="1"/>
-    <col min="54" max="54" width="20.90625" customWidth="1"/>
+    <col min="31" max="32" width="9.06640625" customWidth="1"/>
+    <col min="33" max="33" width="18.46484375" customWidth="1"/>
+    <col min="34" max="49" width="9.06640625" customWidth="1"/>
+    <col min="50" max="52" width="12.06640625" customWidth="1"/>
+    <col min="53" max="53" width="15.06640625" customWidth="1"/>
+    <col min="54" max="54" width="20.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -983,7 +983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1216,7 +1216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B8CA5-DEB8-42F4-A266-F4DF4A1ECCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A2DBA4-FD7A-4958-A89C-32DF4F740DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,9 +279,6 @@
     <t>ЖЗ-766212</t>
   </si>
   <si>
-    <t>3 отделение</t>
-  </si>
-  <si>
     <t>1 стрелковая рота</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>РЦ-365212</t>
+  </si>
+  <si>
+    <t>3 стрелковое отделение</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -959,13 +959,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -988,16 +988,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
         <v>54</v>
@@ -1017,13 +1017,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
@@ -1061,7 +1061,7 @@
         <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
         <v>71</v>
@@ -1090,7 +1090,7 @@
         <v>54</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
         <v>63</v>

--- a/pisar/data/personnel-demo.xlsx
+++ b/pisar/data/personnel-demo.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A2DBA4-FD7A-4958-A89C-32DF4F740DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leonov\pisar\pisar\db-migration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C72FD-4E73-414C-B3F8-E5294C0E7EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Другой лист" sheetId="2" r:id="rId1"/>
-    <sheet name="ШДС" sheetId="1" r:id="rId2"/>
-    <sheet name="Ещё один лист" sheetId="3" r:id="rId3"/>
+    <sheet name="ШДС" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,16 +31,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>№
 п/п</t>
   </si>
   <si>
+    <t>Полная должность</t>
+  </si>
+  <si>
+    <t>Сокр. Должн.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№
+п/п </t>
+  </si>
+  <si>
+    <t>Должность</t>
+  </si>
+  <si>
     <t>Подразделение</t>
   </si>
   <si>
-    <t>Рота</t>
+    <t>Подразделение 2</t>
   </si>
   <si>
     <t>Взвод</t>
@@ -69,9 +80,24 @@
     <t>в/зв</t>
   </si>
   <si>
+    <t>кат</t>
+  </si>
+  <si>
+    <t>Паспорт</t>
+  </si>
+  <si>
+    <t>УВБД</t>
+  </si>
+  <si>
     <t>Личный номер</t>
   </si>
   <si>
+    <t>Дата присвоения звания</t>
+  </si>
+  <si>
+    <t>№ Приказа присвоения</t>
+  </si>
+  <si>
     <t>Воинское звание фактическое</t>
   </si>
   <si>
@@ -81,7 +107,10 @@
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>Дата окончания</t>
+    <t>Дата заключения нового контракта</t>
+  </si>
+  <si>
+    <t>Срок контракта</t>
   </si>
   <si>
     <t>Дата зачисления</t>
@@ -90,236 +119,293 @@
     <t>Статус 1</t>
   </si>
   <si>
-    <t>Позиция</t>
-  </si>
-  <si>
-    <t>Примечание 1</t>
-  </si>
-  <si>
-    <t>Примечание 2</t>
-  </si>
-  <si>
-    <t>Примечание 3</t>
-  </si>
-  <si>
-    <t>Примечание 4</t>
-  </si>
-  <si>
-    <t>Примечание 5</t>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Отрыв!</t>
+  </si>
+  <si>
+    <t>Дата убытия (Отрыв)</t>
+  </si>
+  <si>
+    <t>Примечание (Отрыв)</t>
+  </si>
+  <si>
+    <t>Дата возвращения (Отрыв)</t>
+  </si>
+  <si>
+    <t>Задачи по переводу (выводу)</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>чей</t>
+  </si>
+  <si>
+    <t>Дата ранения (БП)</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>1 Уткин ШГ</t>
+  </si>
+  <si>
+    <t>2 Уткин ШГ</t>
+  </si>
+  <si>
+    <t>ШТУРМОВЫЕ Группы</t>
+  </si>
+  <si>
+    <t>ПОЗЫВНОЙ</t>
+  </si>
+  <si>
+    <t>Черный ФЛАГ</t>
+  </si>
+  <si>
+    <t>На БЗ</t>
+  </si>
+  <si>
+    <t>Для нового БЧС</t>
+  </si>
+  <si>
+    <t>Вооружение на ЛБС</t>
+  </si>
+  <si>
+    <t>АК-74</t>
+  </si>
+  <si>
+    <t>ПМ</t>
+  </si>
+  <si>
+    <t>РПГ-7</t>
+  </si>
+  <si>
+    <t>ПК</t>
+  </si>
+  <si>
+    <t>СВД</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
   </si>
   <si>
     <t>ВВТ</t>
   </si>
   <si>
-    <t>Возраст</t>
-  </si>
-  <si>
-    <t>Вакант</t>
-  </si>
-  <si>
-    <t>Командировка (СВО)</t>
-  </si>
-  <si>
-    <t>Мед. рота (СП)</t>
-  </si>
-  <si>
-    <t>Мед. рота (300)</t>
-  </si>
-  <si>
-    <t>Госпиталь (СП)</t>
-  </si>
-  <si>
-    <t>СОЧ</t>
-  </si>
-  <si>
-    <t>Арест</t>
-  </si>
-  <si>
-    <t>Отпуск</t>
-  </si>
-  <si>
-    <t>Госпиталь (300)</t>
-  </si>
-  <si>
-    <t>ПВД/Диск Бетон</t>
-  </si>
-  <si>
-    <t>Увольнение</t>
-  </si>
-  <si>
-    <t>Полигон</t>
-  </si>
-  <si>
-    <t>Другие причины</t>
-  </si>
-  <si>
-    <t>НВС</t>
-  </si>
-  <si>
-    <t>Командировка (за СВО)</t>
-  </si>
-  <si>
-    <t>Плен</t>
-  </si>
-  <si>
-    <t>БП</t>
-  </si>
-  <si>
-    <t>Караул</t>
-  </si>
-  <si>
-    <t>бд 1</t>
-  </si>
-  <si>
-    <t>бд 2</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Фамилия И.О.</t>
+    <t>Возраст2</t>
+  </si>
+  <si>
+    <t>Серпилин Иван Николаевич</t>
+  </si>
+  <si>
+    <t>27.1.1978</t>
+  </si>
+  <si>
+    <t>Батюк Сергей Ильич</t>
+  </si>
+  <si>
+    <t>18.05.1990</t>
+  </si>
+  <si>
+    <t>Нестеренко Константин Петрович</t>
+  </si>
+  <si>
+    <t>5.12.1989</t>
+  </si>
+  <si>
+    <t>Токаев Аксай Берметович</t>
+  </si>
+  <si>
+    <t>07.10.2001</t>
+  </si>
+  <si>
+    <t>Басалай Алексей Георгиевич</t>
+  </si>
+  <si>
+    <t>19.6.1988</t>
+  </si>
+  <si>
+    <t>Даутов Искандер Садыкович</t>
+  </si>
+  <si>
+    <t>06.04.1967</t>
+  </si>
+  <si>
+    <t>Говоров Леонид Александрович</t>
+  </si>
+  <si>
+    <t>31.03.1971</t>
+  </si>
+  <si>
+    <t>Ажибаев Жаксыбай Жакслыкович</t>
+  </si>
+  <si>
+    <t>4.03.1987</t>
+  </si>
+  <si>
+    <t>ФРОЛОВ ЕВГЕНИЙ МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t>16.07.1993</t>
+  </si>
+  <si>
+    <t>АБ-346578</t>
+  </si>
+  <si>
+    <t>ВГ-113423</t>
+  </si>
+  <si>
+    <t>ЖЗ-766212</t>
+  </si>
+  <si>
+    <t>ЛК-884912</t>
+  </si>
+  <si>
+    <t>РЦ-365212</t>
+  </si>
+  <si>
+    <t>РО-292941</t>
+  </si>
+  <si>
+    <t>РР-772211</t>
+  </si>
+  <si>
+    <t>ТА-839234</t>
+  </si>
+  <si>
+    <t>ИП-983122</t>
+  </si>
+  <si>
+    <t>2 Стрелковый батальон</t>
+  </si>
+  <si>
+    <t>4 Стрелковая рота</t>
+  </si>
+  <si>
+    <t>3 Стрелковый Взвод</t>
+  </si>
+  <si>
+    <t>Командир 3 стрелкового отделения 3 стрелкового взвода 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>КО</t>
+  </si>
+  <si>
+    <t>КО 3со 3св 4ср 2сб</t>
+  </si>
+  <si>
+    <t>3 Стрелковое отделение</t>
+  </si>
+  <si>
+    <t>Командир отделения</t>
+  </si>
+  <si>
+    <t>Старший стрелок 3 стрелкового отделения 3 стрелкового взвода 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>Ст.стр.</t>
+  </si>
+  <si>
+    <t>Ст.стр. 3со 3св 4ср 2сб</t>
+  </si>
+  <si>
+    <t>Старший стрелок</t>
+  </si>
+  <si>
+    <t>Пулеметчик 3 стрелкового отделения 3 стрелкового взвода 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>Пул.</t>
+  </si>
+  <si>
+    <t>Пул.3со 3св 4ср 2сб</t>
   </si>
   <si>
     <t>Пулеметчик</t>
   </si>
   <si>
+    <t>Гранатометчик 3 стрелкового отделения 3 стрелкового взвода 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>Гран.</t>
+  </si>
+  <si>
+    <t>Гран.3со 3св 4ср 2сб</t>
+  </si>
+  <si>
     <t>Гранатометчик</t>
   </si>
   <si>
-    <t>Стрелок</t>
-  </si>
-  <si>
-    <t>рядовой</t>
-  </si>
-  <si>
-    <t>сержант</t>
-  </si>
-  <si>
-    <t>Серпилин Иван Николаевич</t>
-  </si>
-  <si>
-    <t>Батюк Сергей Ильич</t>
-  </si>
-  <si>
-    <t>Нестеренко Константин Петрович</t>
-  </si>
-  <si>
-    <t>Радист</t>
-  </si>
-  <si>
-    <t>27.1.1978</t>
-  </si>
-  <si>
-    <t>18.05.1990</t>
-  </si>
-  <si>
-    <t>5.12.1989</t>
-  </si>
-  <si>
-    <t>07.10.2001</t>
-  </si>
-  <si>
-    <t>Басалай Алексей Георгиевич</t>
-  </si>
-  <si>
-    <t>19.6.1988</t>
-  </si>
-  <si>
-    <t>Даутов Искандер Садыкович</t>
-  </si>
-  <si>
-    <t>Говоров Леонид Александрович</t>
-  </si>
-  <si>
-    <t>06.04.1967</t>
-  </si>
-  <si>
-    <t>31.03.1971</t>
-  </si>
-  <si>
-    <t>Ажибаев Жаксыбай Жакслыкович</t>
-  </si>
-  <si>
-    <t>4.03.1987</t>
-  </si>
-  <si>
-    <t>Токаев Аксай Берметович</t>
-  </si>
-  <si>
-    <t>ВРИО командира 1 стрелковой роты 2 стрелкового батальона</t>
-  </si>
-  <si>
-    <t>заместитель командира 2 стрелковой роты по военно-политической работе</t>
-  </si>
-  <si>
-    <t>лейтенант</t>
-  </si>
-  <si>
-    <t>старший лейтенант</t>
-  </si>
-  <si>
-    <t>ФРОЛОВ ЕВГЕНИЙ МИХАЙЛОВИЧ</t>
-  </si>
-  <si>
-    <t>16.07.1993</t>
-  </si>
-  <si>
-    <t>АБ-346578</t>
-  </si>
-  <si>
-    <t>ВГ-113423</t>
-  </si>
-  <si>
-    <t>ЖЗ-766212</t>
-  </si>
-  <si>
-    <t>1 стрелковая рота</t>
-  </si>
-  <si>
-    <t>3 разведывательная рота</t>
-  </si>
-  <si>
-    <t>2 стрелковый взвод</t>
-  </si>
-  <si>
-    <t>3 разведывательный взвод</t>
-  </si>
-  <si>
-    <t>2 артиллерийская рота</t>
-  </si>
-  <si>
-    <t>1 артиллерийская батарея</t>
-  </si>
-  <si>
-    <t>2 орудийный расчет</t>
-  </si>
-  <si>
-    <t>4 разведывательное отделение</t>
+    <t>Стрелок - помощник гранатометчика 3 стрелкового отделения 3 стрелкового взвода 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>СПГ</t>
+  </si>
+  <si>
+    <t>СПГ 3со 3св 4ср 2сб</t>
+  </si>
+  <si>
+    <t>Стрелок - помощник гранатометчика</t>
+  </si>
+  <si>
+    <t>Наводчик (ПТР) 3 стрелкового отделения 3 стрелкового взвода 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>Навод.(ПТР)</t>
+  </si>
+  <si>
+    <t>Навод.(ПТР) 3со 3св 4ср 2сб</t>
+  </si>
+  <si>
+    <t>Наводчик (ПТР)</t>
+  </si>
+  <si>
+    <t>Номер расчета (ПТР) 3 стрелкового отделения 3 стрелкового взвода 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>НР (ПТР)</t>
+  </si>
+  <si>
+    <t>НР (ПТР) 3со 3св 4ср 2сб</t>
+  </si>
+  <si>
+    <t>Номер расчета (ПТР)</t>
+  </si>
+  <si>
+    <t>Командир 1 пулеметного отделения 4 стрелковой роты 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>КО пул. отд.</t>
+  </si>
+  <si>
+    <t>КО 1пул. отд. 4ср 2сб</t>
+  </si>
+  <si>
+    <t>1 Пулеметное отделение</t>
+  </si>
+  <si>
+    <t>Наводчик 1 пулеметного отделения 4 стрелковой роты 4 стрелковой роты 2 стрелкового батальона</t>
+  </si>
+  <si>
+    <t>Навод. пул. отд.</t>
+  </si>
+  <si>
+    <t>Навод. 1пул. отд. 4ср 2сб</t>
   </si>
   <si>
     <t>Наводчик</t>
-  </si>
-  <si>
-    <t>ЛК-884912</t>
-  </si>
-  <si>
-    <t>РЦ-365212</t>
-  </si>
-  <si>
-    <t>3 стрелковое отделение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00[$€-1]_-;\-* #,##0.00[$€-1]_-;_-* &quot;-&quot;??[$€-1]_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,22 +423,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -364,18 +435,37 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -387,24 +477,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -415,7 +509,9 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -424,46 +520,53 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2 67" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 27" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2 67" xfId="1" xr:uid="{0B814BD4-2FEA-4BD3-87CA-897456F31DFA}"/>
+    <cellStyle name="Обычный 27" xfId="2" xr:uid="{597EED0D-D1AC-4692-8A66-7DC8217B8BA2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,9 +582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,12 +622,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -559,7 +662,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -591,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,485 +843,536 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D329EB4-2DD9-47B1-A8D6-08AE02A27C8D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BB10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="22.53125" customWidth="1"/>
-    <col min="5" max="5" width="20.9296875" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="22.53125" customWidth="1"/>
-    <col min="15" max="15" width="41" customWidth="1"/>
-    <col min="16" max="16" width="16.06640625" customWidth="1"/>
-    <col min="17" max="17" width="16.19921875" customWidth="1"/>
-    <col min="18" max="18" width="20.59765625" customWidth="1"/>
-    <col min="19" max="19" width="20.53125" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
-    <col min="21" max="21" width="23.53125" customWidth="1"/>
-    <col min="22" max="22" width="38.53125" customWidth="1"/>
-    <col min="23" max="23" width="37.53125" customWidth="1"/>
-    <col min="24" max="25" width="32" customWidth="1"/>
-    <col min="26" max="26" width="20.9296875" customWidth="1"/>
-    <col min="27" max="27" width="24.46484375" customWidth="1"/>
-    <col min="28" max="28" width="31.46484375" customWidth="1"/>
-    <col min="29" max="29" width="23.53125" customWidth="1"/>
-    <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="32" width="9.06640625" customWidth="1"/>
-    <col min="33" max="33" width="18.46484375" customWidth="1"/>
-    <col min="34" max="49" width="9.06640625" customWidth="1"/>
-    <col min="50" max="52" width="12.06640625" customWidth="1"/>
-    <col min="53" max="53" width="15.06640625" customWidth="1"/>
-    <col min="54" max="54" width="20.9296875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" customWidth="1"/>
+    <col min="23" max="23" width="27.33203125" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:54" s="13" customFormat="1" ht="104.4" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="7">
-        <v>200</v>
+      <c r="AS1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AW1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA1" s="10" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
       <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
-        <v>60</v>
+      <c r="X3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
       <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" t="s">
-        <v>61</v>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="s">
-        <v>62</v>
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" t="s">
         <v>63</v>
       </c>
-      <c r="P6" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" t="s">
         <v>65</v>
       </c>
-      <c r="P7" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" t="s">
-        <v>68</v>
+      <c r="X8" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" t="s">
+        <v>68</v>
+      </c>
+      <c r="X9" t="s">
         <v>69</v>
       </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" t="s">
+        <v>80</v>
+      </c>
+      <c r="W10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC2861C-BB26-4A92-ADD8-F43E990D5766}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>